--- a/biology/Botanique/Arrosage_du_bonsaï/Arrosage_du_bonsaï.xlsx
+++ b/biology/Botanique/Arrosage_du_bonsaï/Arrosage_du_bonsaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arrosage_du_bonsa%C3%AF</t>
+          <t>Arrosage_du_bonsaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arrosage est une phase importante pour la survie et le développement du bonsaï qu'il soit d'extérieur, d'orangerie ou d'intérieur. L'excès ou le défaut d'eau est fatal.
 Aucune fréquence n'est établie mais une observation du substrat et de l'arbre permet de déceler le bon moment.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arrosage_du_bonsa%C3%AF</t>
+          <t>Arrosage_du_bonsaï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Méthode générique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'arrosage des bonsaï, on parle souvent de « bassinage ». Aucun rapport avec une bassine ou le fait de mettre le pot dedans. Il s'agit d'arroser en pluie fine (avec un arrosoir à pomme) par le dessus de l'arbre pour que l'eau ruisselle sur les feuilles avant d'arriver sur le pot, puis coule par les trous de drainages.
 Cette méthode permet le nettoyage des feuilles et évite divers infestations (acariens en intérieurs) nuisible pour l'arbre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arrosage_du_bonsa%C3%AF</t>
+          <t>Arrosage_du_bonsaï</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>L'arrosage de substrat type « terreau » et équivalent peu drainant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de substrat devient hydrophobe dès qu'il manque un peu d'humidité. Si on le maintient constamment humide, les racines pourrissent et l'arbre meurt.
 Pour les mi-saisons (printemps/automne) l'arrosage générique suffit généralement.
